--- a/biology/Zoologie/Cunina_(biologie)/Cunina_(biologie).xlsx
+++ b/biology/Zoologie/Cunina_(biologie)/Cunina_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cunina est un genre de narcoméduses (hydrozoaires) de la famille des Cuninidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (26 novembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (26 novembre 2023) :
 Cunina becki Bouillon, 1985
 Cunina duplicata Maas, 1893
 Cunina fowleri (Browne, 1906)
@@ -551,10 +565,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cunina Eschscholtz, 1829[1],[2].
-Cunina a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cunina Eschscholtz, 1829,.
+Cunina a pour synonyme :
 Cunoctantha Haeckel, 1879</t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Fr. Eschscholtz, System der Acalephen. Eine aus führliche Beschreibung aller medusenartigen Strahlthiere, Berlin, Ferdinand Dümmler, 1829, 238 p. (OCLC 14409225, DOI 10.5962/BHL.TITLE.10139, lire en ligne)</t>
         </is>
